--- a/Template_Input.xlsx
+++ b/Template_Input.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\minda\Desktop\WORK_2020\PYTHON_EXP\PLOTTER\UP_TO_DATE_FILES_REQUIRED\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\minda\Desktop\WORK_2020\PYTHON_EXP\PLOTTER\UP_TO_DATE_FILES_REQUIRED\SUBMISSION_FILES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{F326981E-A562-407C-A1B1-35BBD3DBE545}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83929A8D-1191-4879-9ADC-B036B507B53B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Template_Input" sheetId="1" r:id="rId1"/>
@@ -136,19 +136,19 @@
     <t>Exaggeration line style - Ex style Graphs 3,4</t>
   </si>
   <si>
-    <t>Percentage plot 1</t>
-  </si>
-  <si>
-    <t>Percentage plot 2</t>
-  </si>
-  <si>
     <t>DATA</t>
+  </si>
+  <si>
+    <t>Stack plot 1</t>
+  </si>
+  <si>
+    <t>Stack plot 2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -996,21 +996,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="A2" sqref="A2:A39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="44.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1019,7 +1019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1030,7 +1030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -1041,7 +1041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -1052,7 +1052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -1063,7 +1063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
@@ -1085,7 +1085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
@@ -1107,7 +1107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
@@ -1129,7 +1129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
@@ -1140,7 +1140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>13</v>
       </c>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>14</v>
       </c>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>15</v>
       </c>
@@ -1173,7 +1173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>16</v>
       </c>
@@ -1184,7 +1184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>17</v>
       </c>
@@ -1195,7 +1195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>18</v>
       </c>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>19</v>
       </c>
@@ -1217,7 +1217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>20</v>
       </c>
@@ -1228,7 +1228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>21</v>
       </c>
@@ -1239,7 +1239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>22</v>
       </c>
@@ -1250,7 +1250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>23</v>
       </c>
@@ -1261,7 +1261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>24</v>
       </c>
@@ -1272,7 +1272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>25</v>
       </c>
@@ -1283,7 +1283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>26</v>
       </c>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>27</v>
       </c>
@@ -1305,7 +1305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>28</v>
       </c>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>29</v>
       </c>
@@ -1327,7 +1327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>30</v>
       </c>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>31</v>
       </c>
@@ -1349,7 +1349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>32</v>
       </c>
@@ -1360,7 +1360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>33</v>
       </c>
@@ -1371,7 +1371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>34</v>
       </c>
@@ -1382,7 +1382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>35</v>
       </c>
@@ -1393,7 +1393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>36</v>
       </c>
@@ -1404,7 +1404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>37</v>
       </c>
@@ -1415,9 +1415,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B38" s="1">
         <v>0</v>
@@ -1426,9 +1426,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B39" s="1">
         <v>0</v>
@@ -1437,9 +1437,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1">
         <v>0</v>
@@ -1448,9 +1448,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B41" s="1">
         <v>0</v>
@@ -1459,9 +1459,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B42" s="1">
         <v>0</v>
@@ -1470,9 +1470,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B43" s="1">
         <v>0</v>
@@ -1481,9 +1481,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B44" s="1">
         <v>0</v>
@@ -1492,9 +1492,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B45" s="1">
         <v>0</v>
@@ -1503,9 +1503,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B46" s="1">
         <v>0</v>
@@ -1514,9 +1514,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B47" s="1">
         <v>0</v>
@@ -1525,9 +1525,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B48" s="1">
         <v>0</v>
@@ -1536,9 +1536,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B49" s="1">
         <v>0</v>
@@ -1547,9 +1547,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B50" s="1">
         <v>0</v>
@@ -1558,9 +1558,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B51" s="1">
         <v>0</v>
@@ -1569,9 +1569,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B52" s="1">
         <v>0</v>
@@ -1580,9 +1580,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B53" s="1">
         <v>0</v>
@@ -1591,9 +1591,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B54" s="1">
         <v>0</v>
@@ -1602,9 +1602,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B55" s="1">
         <v>0</v>
@@ -1613,9 +1613,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B56" s="1">
         <v>0</v>
@@ -1624,9 +1624,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B57" s="1">
         <v>0</v>
@@ -1635,9 +1635,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B58" s="1">
         <v>0</v>
@@ -1646,9 +1646,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B59" s="1">
         <v>0</v>
@@ -1657,9 +1657,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B60" s="1">
         <v>0</v>
@@ -1668,9 +1668,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B61" s="1">
         <v>0</v>
@@ -1679,9 +1679,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B62" s="1">
         <v>0</v>
@@ -1690,9 +1690,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B63" s="1">
         <v>0</v>
@@ -1701,9 +1701,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B64" s="1">
         <v>0</v>
@@ -1712,9 +1712,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B65" s="1">
         <v>0</v>
@@ -1723,9 +1723,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B66" s="1">
         <v>0</v>
@@ -1734,9 +1734,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B67" s="1">
         <v>0</v>
@@ -1745,9 +1745,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B68" s="1">
         <v>0</v>
@@ -1756,9 +1756,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B69" s="1">
         <v>0</v>
@@ -1767,9 +1767,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B70" s="1">
         <v>0</v>
@@ -1778,9 +1778,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B71" s="1">
         <v>0</v>
@@ -1789,9 +1789,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B72" s="1">
         <v>0</v>
@@ -1800,9 +1800,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B73" s="1">
         <v>0</v>
@@ -1811,9 +1811,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B74" s="1">
         <v>0</v>
@@ -1822,9 +1822,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B75" s="1">
         <v>0</v>
@@ -1833,9 +1833,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B76" s="1">
         <v>0</v>
@@ -1844,9 +1844,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B77" s="1">
         <v>0</v>
@@ -1855,9 +1855,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B78" s="1">
         <v>0</v>
@@ -1866,9 +1866,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B79" s="1">
         <v>0</v>
@@ -1877,9 +1877,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B80" s="1">
         <v>0</v>
@@ -1888,9 +1888,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B81" s="1">
         <v>0</v>
@@ -1899,9 +1899,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B82" s="1">
         <v>0</v>
@@ -1910,9 +1910,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B83" s="1">
         <v>0</v>
@@ -1921,9 +1921,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B84" s="1">
         <v>0</v>
@@ -1932,9 +1932,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B85" s="1">
         <v>0</v>
@@ -1943,9 +1943,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B86" s="1">
         <v>0</v>
@@ -1954,9 +1954,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B87" s="1">
         <v>0</v>
@@ -1965,9 +1965,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B88" s="1">
         <v>0</v>
@@ -1976,9 +1976,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B89" s="1">
         <v>0</v>
@@ -1987,9 +1987,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B90" s="1">
         <v>0</v>
@@ -1998,9 +1998,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B91" s="1">
         <v>0</v>
@@ -2009,9 +2009,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B92" s="1">
         <v>0</v>
@@ -2020,9 +2020,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B93" s="1">
         <v>0</v>
@@ -2031,9 +2031,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B94" s="1">
         <v>0</v>
@@ -2042,9 +2042,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B95" s="1">
         <v>0</v>
@@ -2053,9 +2053,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B96" s="1">
         <v>0</v>
@@ -2064,9 +2064,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B97" s="1">
         <v>0</v>
@@ -2075,9 +2075,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B98" s="1">
         <v>0</v>
@@ -2086,9 +2086,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B99" s="1">
         <v>0</v>
@@ -2097,9 +2097,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B100" s="1">
         <v>0</v>
@@ -2108,9 +2108,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B101" s="1">
         <v>0</v>
@@ -2119,9 +2119,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B102" s="1">
         <v>0</v>
@@ -2130,9 +2130,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B103" s="1">
         <v>0</v>
@@ -2141,9 +2141,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B104" s="1">
         <v>0</v>
